--- a/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X121"/>
+  <dimension ref="A1:W121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,60 +429,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 14</t>
+          <t>leaf_area</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>leaf_area</t>
+          <t>suitable_growth_length</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>suitable_growth_length</t>
+          <t>suitable_thickness</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>suitable_thickness</t>
+          <t>suitable_leaf_length</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_length</t>
+          <t>suitable_leaf_width</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_width</t>
+          <t>suitable_number_of_leaf</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_number</t>
+          <t>suitable_leaf_area</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_area</t>
+          <t>suitable_flower_room</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_room</t>
+          <t>suitable_flower_distance</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_distance</t>
+          <t>growth_type_score</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>growth_type_score</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>growth_type</t>
         </is>
@@ -528,39 +523,36 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.4244583776223776</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4244583776223776</v>
+        <v>-1</v>
       </c>
       <c r="O2" t="n">
         <v>-1</v>
       </c>
       <c r="P2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S2" t="n">
         <v>-1</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W2" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X2" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -604,10 +596,10 @@
         <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.2288746153846154</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2288746153846154</v>
+        <v>-1</v>
       </c>
       <c r="O3" t="n">
         <v>-1</v>
@@ -625,18 +617,15 @@
         <v>-1</v>
       </c>
       <c r="T3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="W3" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X3" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -680,39 +669,36 @@
         <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.3721538461538462</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3721538461538462</v>
+        <v>-1</v>
       </c>
       <c r="O4" t="n">
         <v>-1</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S4" t="n">
         <v>-1</v>
       </c>
       <c r="T4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W4" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X4" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -756,10 +742,10 @@
         <v>1.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.3268187412587413</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3268187412587413</v>
+        <v>-1</v>
       </c>
       <c r="O5" t="n">
         <v>-1</v>
@@ -777,18 +763,15 @@
         <v>-1</v>
       </c>
       <c r="T5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="W5" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X5" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -832,39 +815,36 @@
         <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.6103323076923077</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6103323076923077</v>
+        <v>-1</v>
       </c>
       <c r="O6" t="n">
         <v>-1</v>
       </c>
       <c r="P6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="n">
         <v>-1</v>
       </c>
       <c r="T6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W6" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X6" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -908,39 +888,36 @@
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.5967994405594406</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5967994405594406</v>
+        <v>-1</v>
       </c>
       <c r="O7" t="n">
         <v>-1</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S7" t="n">
         <v>-1</v>
       </c>
       <c r="T7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W7" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X7" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -984,39 +961,36 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>16</v>
+        <v>0.4262853146853147</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4262853146853147</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
         <v>-1</v>
       </c>
       <c r="P8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8" t="n">
         <v>-1</v>
       </c>
       <c r="T8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X8" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1060,19 +1034,19 @@
         <v>2.3</v>
       </c>
       <c r="M9" t="n">
-        <v>11</v>
+        <v>0.4165416503496503</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4165416503496503</v>
+        <v>-1</v>
       </c>
       <c r="O9" t="n">
         <v>-1</v>
       </c>
       <c r="P9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9" t="n">
         <v>-1</v>
@@ -1081,18 +1055,15 @@
         <v>-1</v>
       </c>
       <c r="T9" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="W9" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X9" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1136,39 +1107,36 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>0.5602606993006993</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5602606993006993</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10" t="n">
         <v>-1</v>
       </c>
       <c r="T10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X10" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1212,39 +1180,36 @@
         <v>2.2</v>
       </c>
       <c r="M11" t="n">
-        <v>19</v>
+        <v>0.6631104895104896</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6631104895104896</v>
+        <v>-1</v>
       </c>
       <c r="O11" t="n">
         <v>-1</v>
       </c>
       <c r="P11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S11" t="n">
         <v>-1</v>
       </c>
       <c r="T11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W11" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X11" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1288,39 +1253,36 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>18</v>
+        <v>0.6885522797202798</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6885522797202798</v>
+        <v>-1</v>
       </c>
       <c r="O12" t="n">
         <v>-1</v>
       </c>
       <c r="P12" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12" t="n">
         <v>-1</v>
       </c>
       <c r="T12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W12" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X12" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1364,39 +1326,36 @@
         <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>14</v>
+        <v>0.8144079440559441</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8144079440559441</v>
+        <v>-1</v>
       </c>
       <c r="O13" t="n">
         <v>-1</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S13" t="n">
         <v>-1</v>
       </c>
       <c r="T13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="W13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X13" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1440,28 +1399,28 @@
         <v>3.9</v>
       </c>
       <c r="M14" t="n">
-        <v>36</v>
+        <v>1.79770606993007</v>
       </c>
       <c r="N14" t="n">
-        <v>1.79770606993007</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S14" t="n">
         <v>-1</v>
       </c>
       <c r="T14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
@@ -1470,9 +1429,6 @@
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,28 +1472,28 @@
         <v>4.1</v>
       </c>
       <c r="M15" t="n">
-        <v>31</v>
+        <v>1.757513454545454</v>
       </c>
       <c r="N15" t="n">
-        <v>1.757513454545454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S15" t="n">
         <v>-1</v>
       </c>
       <c r="T15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
         <v>1</v>
@@ -1546,9 +1502,6 @@
         <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,39 +1545,36 @@
         <v>3.7</v>
       </c>
       <c r="M16" t="n">
-        <v>42</v>
+        <v>2.679507692307692</v>
       </c>
       <c r="N16" t="n">
-        <v>2.679507692307692</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
-      </c>
-      <c r="X16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1668,39 +1618,36 @@
         <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>39</v>
+        <v>2.521173146853147</v>
       </c>
       <c r="N17" t="n">
-        <v>2.521173146853147</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
-      </c>
-      <c r="X17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1744,13 +1691,13 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>36</v>
+        <v>2.32224</v>
       </c>
       <c r="N18" t="n">
-        <v>2.32224</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -1759,24 +1706,21 @@
         <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,39 +1764,36 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>29</v>
+        <v>0.8444509090909093</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8444509090909093</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S19" t="n">
         <v>-1</v>
       </c>
       <c r="T19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W19" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X19" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -1896,39 +1837,36 @@
         <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>52</v>
+        <v>2.796431664335665</v>
       </c>
       <c r="N20" t="n">
-        <v>2.796431664335665</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
-      </c>
-      <c r="X20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,39 +1910,36 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>48</v>
+        <v>2.500873846153846</v>
       </c>
       <c r="N21" t="n">
-        <v>2.500873846153846</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
-      </c>
-      <c r="X21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2048,39 +1983,36 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>2.798596923076923</v>
       </c>
       <c r="N22" t="n">
-        <v>2.798596923076923</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2124,39 +2056,36 @@
         <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>56</v>
+        <v>1.90975820979021</v>
       </c>
       <c r="N23" t="n">
-        <v>1.90975820979021</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S23" t="n">
         <v>-1</v>
       </c>
       <c r="T23" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
-      </c>
-      <c r="X23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,28 +2129,28 @@
         <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>49</v>
+        <v>2.241042797202797</v>
       </c>
       <c r="N24" t="n">
-        <v>2.241042797202797</v>
+        <v>-1</v>
       </c>
       <c r="O24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S24" t="n">
         <v>-1</v>
       </c>
       <c r="T24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
         <v>1</v>
@@ -2230,9 +2159,6 @@
         <v>1</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,39 +2202,36 @@
         <v>4.6</v>
       </c>
       <c r="M25" t="n">
-        <v>46</v>
+        <v>3.286862769230769</v>
       </c>
       <c r="N25" t="n">
-        <v>3.286862769230769</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
-        <v>4</v>
-      </c>
-      <c r="X25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2352,39 +2275,36 @@
         <v>3.9</v>
       </c>
       <c r="M26" t="n">
-        <v>71</v>
+        <v>1.250436923076923</v>
       </c>
       <c r="N26" t="n">
-        <v>1.250436923076923</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S26" t="n">
         <v>-1</v>
       </c>
       <c r="T26" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
         <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
-      </c>
-      <c r="X26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,39 +2348,36 @@
         <v>2.6</v>
       </c>
       <c r="M27" t="n">
-        <v>72</v>
+        <v>1.941966433566434</v>
       </c>
       <c r="N27" t="n">
-        <v>1.941966433566434</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2504,39 +2421,36 @@
         <v>3.2</v>
       </c>
       <c r="M28" t="n">
-        <v>83</v>
+        <v>2.455403412587412</v>
       </c>
       <c r="N28" t="n">
-        <v>2.455403412587412</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
         <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S28" t="n">
         <v>-1</v>
       </c>
       <c r="T28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
-      </c>
-      <c r="X28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,10 +2494,10 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="n">
-        <v>80</v>
+        <v>2.364462545454546</v>
       </c>
       <c r="N29" t="n">
-        <v>2.364462545454546</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -2595,24 +2509,21 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S29" t="n">
         <v>-1</v>
       </c>
       <c r="T29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W29" t="n">
-        <v>4</v>
-      </c>
-      <c r="X29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2656,39 +2567,36 @@
         <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>67</v>
+        <v>1.607704615384616</v>
       </c>
       <c r="N30" t="n">
-        <v>1.607704615384616</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S30" t="n">
         <v>-1</v>
       </c>
       <c r="T30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
-      </c>
-      <c r="X30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2732,39 +2640,36 @@
         <v>4.1</v>
       </c>
       <c r="M31" t="n">
-        <v>67</v>
+        <v>1.854814769230769</v>
       </c>
       <c r="N31" t="n">
-        <v>1.854814769230769</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S31" t="n">
         <v>-1</v>
       </c>
       <c r="T31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>3</v>
-      </c>
-      <c r="X31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,25 +2713,25 @@
         <v>4.2</v>
       </c>
       <c r="M32" t="n">
-        <v>26</v>
+        <v>3.800029090909091</v>
       </c>
       <c r="N32" t="n">
-        <v>3.800029090909091</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P32" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
         <v>1</v>
@@ -2835,12 +2740,9 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
-      </c>
-      <c r="X32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2884,28 +2786,28 @@
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.142794181818182</v>
       </c>
       <c r="N33" t="n">
-        <v>2.142794181818182</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T33" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>1</v>
@@ -2914,9 +2816,6 @@
         <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
-      </c>
-      <c r="X33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2960,16 +2859,16 @@
         <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>31</v>
+        <v>3.429769846153846</v>
       </c>
       <c r="N34" t="n">
-        <v>3.429769846153846</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -2978,21 +2877,18 @@
         <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U34" t="n">
         <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
-      </c>
-      <c r="X34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,22 +2932,22 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>36</v>
+        <v>3.377803636363637</v>
       </c>
       <c r="N35" t="n">
-        <v>3.377803636363637</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P35" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3060,15 +2956,12 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
-      </c>
-      <c r="X35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3112,39 +3005,36 @@
         <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>30</v>
+        <v>2.762328839160839</v>
       </c>
       <c r="N36" t="n">
-        <v>2.762328839160839</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P36" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
-      </c>
-      <c r="X36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3188,39 +3078,36 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>27</v>
+        <v>2.512241454545455</v>
       </c>
       <c r="N37" t="n">
-        <v>2.512241454545455</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,39 +3151,36 @@
         <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>46</v>
+        <v>2.042515636363636</v>
       </c>
       <c r="N38" t="n">
-        <v>2.042515636363636</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S38" t="n">
         <v>-1</v>
       </c>
       <c r="T38" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U38" t="n">
         <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
-      </c>
-      <c r="X38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3340,39 +3224,36 @@
         <v>3.6</v>
       </c>
       <c r="M39" t="n">
-        <v>23</v>
+        <v>2.072964587412588</v>
       </c>
       <c r="N39" t="n">
-        <v>2.072964587412588</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S39" t="n">
         <v>-1</v>
       </c>
       <c r="T39" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
-        <v>3</v>
-      </c>
-      <c r="X39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3416,39 +3297,36 @@
         <v>4.6</v>
       </c>
       <c r="M40" t="n">
-        <v>57</v>
+        <v>2.734992447552448</v>
       </c>
       <c r="N40" t="n">
-        <v>2.734992447552448</v>
+        <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W40" t="n">
-        <v>4</v>
-      </c>
-      <c r="X40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,39 +3370,36 @@
         <v>4.4</v>
       </c>
       <c r="M41" t="n">
-        <v>59</v>
+        <v>2.286513230769231</v>
       </c>
       <c r="N41" t="n">
-        <v>2.286513230769231</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S41" t="n">
         <v>-1</v>
       </c>
       <c r="T41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" t="n">
-        <v>3</v>
-      </c>
-      <c r="X41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3568,39 +3443,36 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>51</v>
+        <v>1.670091132867133</v>
       </c>
       <c r="N42" t="n">
-        <v>1.670091132867133</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S42" t="n">
         <v>-1</v>
       </c>
       <c r="T42" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
-      </c>
-      <c r="X42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3644,39 +3516,36 @@
         <v>4.1</v>
       </c>
       <c r="M43" t="n">
-        <v>49</v>
+        <v>1.708930461538462</v>
       </c>
       <c r="N43" t="n">
-        <v>1.708930461538462</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S43" t="n">
         <v>-1</v>
       </c>
       <c r="T43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W43" t="n">
-        <v>2</v>
-      </c>
-      <c r="X43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,39 +3589,36 @@
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>72</v>
+        <v>1.867129678321678</v>
       </c>
       <c r="N44" t="n">
-        <v>1.867129678321678</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S44" t="n">
         <v>-1</v>
       </c>
       <c r="T44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
-      </c>
-      <c r="X44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,39 +3662,36 @@
         <v>2.7</v>
       </c>
       <c r="M45" t="n">
-        <v>80</v>
+        <v>1.916253986013986</v>
       </c>
       <c r="N45" t="n">
-        <v>1.916253986013986</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T45" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W45" t="n">
-        <v>2</v>
-      </c>
-      <c r="X45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3872,39 +3735,36 @@
         <v>3.8</v>
       </c>
       <c r="M46" t="n">
-        <v>84</v>
+        <v>2.250786461538462</v>
       </c>
       <c r="N46" t="n">
-        <v>2.250786461538462</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" t="n">
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T46" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W46" t="n">
-        <v>4</v>
-      </c>
-      <c r="X46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,39 +3808,36 @@
         <v>4.1</v>
       </c>
       <c r="M47" t="n">
-        <v>80</v>
+        <v>2.557711888111888</v>
       </c>
       <c r="N47" t="n">
-        <v>2.557711888111888</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U47" t="n">
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W47" t="n">
-        <v>4</v>
-      </c>
-      <c r="X47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4024,39 +3881,36 @@
         <v>4.1</v>
       </c>
       <c r="M48" t="n">
-        <v>77</v>
+        <v>1.496261454545455</v>
       </c>
       <c r="N48" t="n">
-        <v>1.496261454545455</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S48" t="n">
         <v>-1</v>
       </c>
       <c r="T48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>3</v>
-      </c>
-      <c r="X48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4100,39 +3954,36 @@
         <v>4.1</v>
       </c>
       <c r="M49" t="n">
-        <v>74</v>
+        <v>3.112559440559441</v>
       </c>
       <c r="N49" t="n">
-        <v>3.112559440559441</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P49" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W49" t="n">
-        <v>4</v>
-      </c>
-      <c r="X49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,39 +4027,36 @@
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>38</v>
+        <v>2.438352</v>
       </c>
       <c r="N50" t="n">
-        <v>2.438352</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
-      </c>
-      <c r="X50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,39 +4100,36 @@
         <v>2.7</v>
       </c>
       <c r="M51" t="n">
-        <v>41</v>
+        <v>1.624823692307692</v>
       </c>
       <c r="N51" t="n">
-        <v>1.624823692307692</v>
+        <v>-1</v>
       </c>
       <c r="O51" t="n">
         <v>-1</v>
       </c>
       <c r="P51" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W51" t="n">
-        <v>-2</v>
-      </c>
-      <c r="X51" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4328,39 +4173,36 @@
         <v>3.3</v>
       </c>
       <c r="M52" t="n">
-        <v>48</v>
+        <v>1.973904</v>
       </c>
       <c r="N52" t="n">
-        <v>1.973904</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T52" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>3</v>
-      </c>
-      <c r="X52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,39 +4246,36 @@
         <v>3.9</v>
       </c>
       <c r="M53" t="n">
-        <v>46</v>
+        <v>2.247132587412588</v>
       </c>
       <c r="N53" t="n">
-        <v>2.247132587412588</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S53" t="n">
         <v>-1</v>
       </c>
       <c r="T53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W53" t="n">
-        <v>3</v>
-      </c>
-      <c r="X53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4480,39 +4319,36 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>59</v>
+        <v>1.619884195804196</v>
       </c>
       <c r="N54" t="n">
-        <v>1.619884195804196</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S54" t="n">
         <v>-1</v>
       </c>
       <c r="T54" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
-      </c>
-      <c r="X54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4556,39 +4392,36 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>52</v>
+        <v>1.33731793006993</v>
       </c>
       <c r="N55" t="n">
-        <v>1.33731793006993</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S55" t="n">
         <v>-1</v>
       </c>
       <c r="T55" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>2</v>
-      </c>
-      <c r="X55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4632,39 +4465,36 @@
         <v>2.4</v>
       </c>
       <c r="M56" t="n">
-        <v>63</v>
+        <v>1.727876475524476</v>
       </c>
       <c r="N56" t="n">
-        <v>1.727876475524476</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V56" t="n">
         <v>-1</v>
       </c>
       <c r="W56" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X56" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4708,39 +4538,36 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>66</v>
+        <v>2.304376615384615</v>
       </c>
       <c r="N57" t="n">
-        <v>2.304376615384615</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P57" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W57" t="n">
-        <v>2</v>
-      </c>
-      <c r="X57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4784,28 +4611,28 @@
         <v>2.6</v>
       </c>
       <c r="M58" t="n">
-        <v>79</v>
+        <v>1.542205538461539</v>
       </c>
       <c r="N58" t="n">
-        <v>1.542205538461539</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P58" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T58" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -4814,9 +4641,6 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
-      </c>
-      <c r="X58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4860,16 +4684,16 @@
         <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>73</v>
+        <v>1.250436923076923</v>
       </c>
       <c r="N59" t="n">
-        <v>1.250436923076923</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -4878,21 +4702,18 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W59" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X59" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4936,39 +4757,36 @@
         <v>3.5</v>
       </c>
       <c r="M60" t="n">
-        <v>84</v>
+        <v>1.452076643356643</v>
       </c>
       <c r="N60" t="n">
-        <v>1.452076643356643</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T60" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5012,16 +4830,16 @@
         <v>3.2</v>
       </c>
       <c r="M61" t="n">
-        <v>78</v>
+        <v>1.277232</v>
       </c>
       <c r="N61" t="n">
-        <v>1.277232</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5030,21 +4848,18 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T61" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W61" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X61" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5088,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>82</v>
+        <v>1.047985230769231</v>
       </c>
       <c r="N62" t="n">
-        <v>1.047985230769231</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5106,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T62" t="n">
         <v>-1</v>
@@ -5115,12 +4930,9 @@
         <v>-1</v>
       </c>
       <c r="V62" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W62" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X62" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5164,16 +4976,16 @@
         <v>1.8</v>
       </c>
       <c r="M63" t="n">
-        <v>89</v>
+        <v>1.006845314685315</v>
       </c>
       <c r="N63" t="n">
-        <v>1.006845314685315</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P63" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -5182,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T63" t="n">
         <v>-1</v>
@@ -5191,12 +5003,9 @@
         <v>-1</v>
       </c>
       <c r="V63" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W63" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X63" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5240,16 +5049,16 @@
         <v>2.8</v>
       </c>
       <c r="M64" t="n">
-        <v>100</v>
+        <v>1.047985230769231</v>
       </c>
       <c r="N64" t="n">
-        <v>1.047985230769231</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P64" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5258,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T64" t="n">
         <v>-1</v>
@@ -5267,12 +5076,9 @@
         <v>-1</v>
       </c>
       <c r="V64" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W64" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X64" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5316,39 +5122,36 @@
         <v>2.4</v>
       </c>
       <c r="M65" t="n">
-        <v>92</v>
+        <v>1.520011636363636</v>
       </c>
       <c r="N65" t="n">
-        <v>1.520011636363636</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P65" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X65" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5392,16 +5195,16 @@
         <v>2.2</v>
       </c>
       <c r="M66" t="n">
-        <v>103</v>
+        <v>1.143256615384615</v>
       </c>
       <c r="N66" t="n">
-        <v>1.143256615384615</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5410,21 +5213,18 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T66" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V66" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W66" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X66" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5468,16 +5268,16 @@
         <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>95</v>
+        <v>0.8336246153846154</v>
       </c>
       <c r="N67" t="n">
-        <v>0.8336246153846154</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5486,21 +5286,18 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T67" t="n">
         <v>-1</v>
       </c>
       <c r="U67" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W67" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X67" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5544,39 +5341,36 @@
         <v>3.5</v>
       </c>
       <c r="M68" t="n">
-        <v>36</v>
+        <v>1.772534937062937</v>
       </c>
       <c r="N68" t="n">
-        <v>1.772534937062937</v>
+        <v>-1</v>
       </c>
       <c r="O68" t="n">
         <v>-1</v>
       </c>
       <c r="P68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W68" t="n">
-        <v>-1</v>
-      </c>
-      <c r="X68" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5620,39 +5414,36 @@
         <v>2.7</v>
       </c>
       <c r="M69" t="n">
-        <v>34</v>
+        <v>1.520011636363636</v>
       </c>
       <c r="N69" t="n">
-        <v>1.520011636363636</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q69" t="n">
         <v>1</v>
       </c>
       <c r="R69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S69" t="n">
         <v>-1</v>
       </c>
       <c r="T69" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W69" t="n">
-        <v>1</v>
-      </c>
-      <c r="X69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5696,39 +5487,36 @@
         <v>3.1</v>
       </c>
       <c r="M70" t="n">
-        <v>32</v>
+        <v>1.446934153846154</v>
       </c>
       <c r="N70" t="n">
-        <v>1.446934153846154</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T70" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
-      </c>
-      <c r="X70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5772,39 +5560,36 @@
         <v>2.8</v>
       </c>
       <c r="M71" t="n">
-        <v>56</v>
+        <v>2.667328111888112</v>
       </c>
       <c r="N71" t="n">
-        <v>2.667328111888112</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P71" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T71" t="n">
         <v>-1</v>
       </c>
       <c r="U71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5848,16 +5633,16 @@
         <v>2.4</v>
       </c>
       <c r="M72" t="n">
-        <v>36</v>
+        <v>1.625568</v>
       </c>
       <c r="N72" t="n">
-        <v>1.625568</v>
+        <v>-1</v>
       </c>
       <c r="O72" t="n">
         <v>-1</v>
       </c>
       <c r="P72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -5866,21 +5651,18 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W72" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X72" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -5924,16 +5706,16 @@
         <v>2.1</v>
       </c>
       <c r="M73" t="n">
-        <v>55</v>
+        <v>1.208755692307692</v>
       </c>
       <c r="N73" t="n">
-        <v>1.208755692307692</v>
+        <v>-1</v>
       </c>
       <c r="O73" t="n">
         <v>-1</v>
       </c>
       <c r="P73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -5942,21 +5724,18 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T73" t="n">
         <v>-1</v>
       </c>
       <c r="U73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="W73" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X73" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6000,25 +5779,25 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1.705141258741259</v>
       </c>
       <c r="N74" t="n">
-        <v>1.705141258741259</v>
+        <v>-1</v>
       </c>
       <c r="O74" t="n">
         <v>-1</v>
       </c>
       <c r="P74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T74" t="n">
         <v>-1</v>
@@ -6027,12 +5806,9 @@
         <v>-1</v>
       </c>
       <c r="V74" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W74" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X74" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6076,25 +5852,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1.682406041958042</v>
       </c>
       <c r="N75" t="n">
-        <v>1.682406041958042</v>
+        <v>-1</v>
       </c>
       <c r="O75" t="n">
         <v>-1</v>
       </c>
       <c r="P75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T75" t="n">
         <v>-1</v>
@@ -6103,12 +5879,9 @@
         <v>-1</v>
       </c>
       <c r="V75" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W75" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X75" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6152,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1.932493426573427</v>
       </c>
       <c r="N76" t="n">
-        <v>1.932493426573427</v>
+        <v>-1</v>
       </c>
       <c r="O76" t="n">
         <v>-1</v>
       </c>
       <c r="P76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -6170,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T76" t="n">
         <v>-1</v>
@@ -6179,12 +5952,9 @@
         <v>-1</v>
       </c>
       <c r="V76" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W76" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X76" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6228,25 +5998,25 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>2.755021090909091</v>
       </c>
       <c r="N77" t="n">
-        <v>2.755021090909091</v>
+        <v>-1</v>
       </c>
       <c r="O77" t="n">
         <v>-1</v>
       </c>
       <c r="P77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T77" t="n">
         <v>-1</v>
@@ -6255,12 +6025,9 @@
         <v>-1</v>
       </c>
       <c r="V77" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W77" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6304,25 +6071,25 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1.987707524475524</v>
       </c>
       <c r="N78" t="n">
-        <v>1.987707524475524</v>
+        <v>-1</v>
       </c>
       <c r="O78" t="n">
         <v>-1</v>
       </c>
       <c r="P78" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T78" t="n">
         <v>-1</v>
@@ -6331,12 +6098,9 @@
         <v>-1</v>
       </c>
       <c r="V78" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W78" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X78" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6380,25 +6144,25 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1.510267972027972</v>
       </c>
       <c r="N79" t="n">
-        <v>1.510267972027972</v>
+        <v>-1</v>
       </c>
       <c r="O79" t="n">
         <v>-1</v>
       </c>
       <c r="P79" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T79" t="n">
         <v>-1</v>
@@ -6407,12 +6171,9 @@
         <v>-1</v>
       </c>
       <c r="V79" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W79" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X79" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6456,25 +6217,25 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>2.185558041958042</v>
       </c>
       <c r="N80" t="n">
-        <v>2.185558041958042</v>
+        <v>-1</v>
       </c>
       <c r="O80" t="n">
         <v>-1</v>
       </c>
       <c r="P80" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T80" t="n">
         <v>-1</v>
@@ -6483,12 +6244,9 @@
         <v>-1</v>
       </c>
       <c r="V80" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W80" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X80" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6532,25 +6290,25 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>2.178114965034965</v>
       </c>
       <c r="N81" t="n">
-        <v>2.178114965034965</v>
+        <v>-1</v>
       </c>
       <c r="O81" t="n">
         <v>-1</v>
       </c>
       <c r="P81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T81" t="n">
         <v>-1</v>
@@ -6559,12 +6317,9 @@
         <v>-1</v>
       </c>
       <c r="V81" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W81" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X81" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6608,25 +6363,25 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>2.301940699300699</v>
       </c>
       <c r="N82" t="n">
-        <v>2.301940699300699</v>
+        <v>-1</v>
       </c>
       <c r="O82" t="n">
         <v>-1</v>
       </c>
       <c r="P82" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T82" t="n">
         <v>-1</v>
@@ -6635,12 +6390,9 @@
         <v>-1</v>
       </c>
       <c r="V82" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W82" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X82" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6684,25 +6436,25 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>2.755021090909091</v>
       </c>
       <c r="N83" t="n">
-        <v>2.755021090909091</v>
+        <v>-1</v>
       </c>
       <c r="O83" t="n">
         <v>-1</v>
       </c>
       <c r="P83" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T83" t="n">
         <v>-1</v>
@@ -6711,12 +6463,9 @@
         <v>-1</v>
       </c>
       <c r="V83" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W83" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X83" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6760,25 +6509,25 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>2.236170965034965</v>
       </c>
       <c r="N84" t="n">
-        <v>2.236170965034965</v>
+        <v>-1</v>
       </c>
       <c r="O84" t="n">
         <v>-1</v>
       </c>
       <c r="P84" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T84" t="n">
         <v>-1</v>
@@ -6787,12 +6536,9 @@
         <v>-1</v>
       </c>
       <c r="V84" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W84" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X84" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6836,25 +6582,25 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>1.792834237762238</v>
       </c>
       <c r="N85" t="n">
-        <v>1.792834237762238</v>
+        <v>-1</v>
       </c>
       <c r="O85" t="n">
         <v>-1</v>
       </c>
       <c r="P85" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T85" t="n">
         <v>-1</v>
@@ -6863,12 +6609,9 @@
         <v>-1</v>
       </c>
       <c r="V85" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W85" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X85" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6912,25 +6655,25 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>2.565019636363636</v>
       </c>
       <c r="N86" t="n">
-        <v>2.565019636363636</v>
+        <v>-1</v>
       </c>
       <c r="O86" t="n">
         <v>-1</v>
       </c>
       <c r="P86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T86" t="n">
         <v>-1</v>
@@ -6939,12 +6682,9 @@
         <v>-1</v>
       </c>
       <c r="V86" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W86" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X86" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -6988,25 +6728,25 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>2.295850909090909</v>
       </c>
       <c r="N87" t="n">
-        <v>2.295850909090909</v>
+        <v>-1</v>
       </c>
       <c r="O87" t="n">
         <v>-1</v>
       </c>
       <c r="P87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T87" t="n">
         <v>-1</v>
@@ -7015,12 +6755,9 @@
         <v>-1</v>
       </c>
       <c r="V87" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W87" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X87" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7064,25 +6801,25 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>2.260530125874126</v>
       </c>
       <c r="N88" t="n">
-        <v>2.260530125874126</v>
+        <v>-1</v>
       </c>
       <c r="O88" t="n">
         <v>-1</v>
       </c>
       <c r="P88" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T88" t="n">
         <v>-1</v>
@@ -7091,12 +6828,9 @@
         <v>-1</v>
       </c>
       <c r="V88" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W88" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X88" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7140,25 +6874,25 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2.850021818181818</v>
       </c>
       <c r="N89" t="n">
-        <v>2.850021818181818</v>
+        <v>-1</v>
       </c>
       <c r="O89" t="n">
         <v>-1</v>
       </c>
       <c r="P89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -7167,12 +6901,9 @@
         <v>-1</v>
       </c>
       <c r="V89" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W89" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X89" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7216,25 +6947,25 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>2.401813258741259</v>
       </c>
       <c r="N90" t="n">
-        <v>2.401813258741259</v>
+        <v>-1</v>
       </c>
       <c r="O90" t="n">
         <v>-1</v>
       </c>
       <c r="P90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T90" t="n">
         <v>-1</v>
@@ -7243,12 +6974,9 @@
         <v>-1</v>
       </c>
       <c r="V90" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W90" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X90" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7292,25 +7020,25 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1.870783552447553</v>
       </c>
       <c r="N91" t="n">
-        <v>1.870783552447553</v>
+        <v>-1</v>
       </c>
       <c r="O91" t="n">
         <v>-1</v>
       </c>
       <c r="P91" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T91" t="n">
         <v>-1</v>
@@ -7319,12 +7047,9 @@
         <v>-1</v>
       </c>
       <c r="V91" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W91" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X91" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7368,25 +7093,25 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1.477789090909091</v>
       </c>
       <c r="N92" t="n">
-        <v>1.477789090909091</v>
+        <v>-1</v>
       </c>
       <c r="O92" t="n">
         <v>-1</v>
       </c>
       <c r="P92" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T92" t="n">
         <v>-1</v>
@@ -7395,12 +7120,9 @@
         <v>-1</v>
       </c>
       <c r="V92" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W92" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X92" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7444,22 +7166,22 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1.425010909090909</v>
       </c>
       <c r="N93" t="n">
-        <v>1.425010909090909</v>
+        <v>-1</v>
       </c>
       <c r="O93" t="n">
         <v>-1</v>
       </c>
       <c r="P93" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S93" t="n">
         <v>-1</v>
@@ -7471,12 +7193,9 @@
         <v>-1</v>
       </c>
       <c r="V93" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W93" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X93" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7520,25 +7239,25 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1.900014545454545</v>
       </c>
       <c r="N94" t="n">
-        <v>1.900014545454545</v>
+        <v>-1</v>
       </c>
       <c r="O94" t="n">
         <v>-1</v>
       </c>
       <c r="P94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T94" t="n">
         <v>-1</v>
@@ -7547,12 +7266,9 @@
         <v>-1</v>
       </c>
       <c r="V94" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W94" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X94" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7596,16 +7312,16 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1.373586013986014</v>
       </c>
       <c r="N95" t="n">
-        <v>1.373586013986014</v>
+        <v>-1</v>
       </c>
       <c r="O95" t="n">
         <v>-1</v>
       </c>
       <c r="P95" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -7614,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T95" t="n">
         <v>-1</v>
@@ -7623,12 +7339,9 @@
         <v>-1</v>
       </c>
       <c r="V95" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W95" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X95" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7672,16 +7385,16 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1.648303216783217</v>
       </c>
       <c r="N96" t="n">
-        <v>1.648303216783217</v>
+        <v>-1</v>
       </c>
       <c r="O96" t="n">
         <v>-1</v>
       </c>
       <c r="P96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -7690,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T96" t="n">
         <v>-1</v>
@@ -7699,12 +7412,9 @@
         <v>-1</v>
       </c>
       <c r="V96" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W96" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X96" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7748,16 +7458,16 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1.435566545454545</v>
       </c>
       <c r="N97" t="n">
-        <v>1.435566545454545</v>
+        <v>-1</v>
       </c>
       <c r="O97" t="n">
         <v>-1</v>
       </c>
       <c r="P97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -7766,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T97" t="n">
         <v>-1</v>
@@ -7775,12 +7485,9 @@
         <v>-1</v>
       </c>
       <c r="V97" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W97" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X97" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7824,22 +7531,22 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1.395170937062937</v>
       </c>
       <c r="N98" t="n">
-        <v>1.395170937062937</v>
+        <v>-1</v>
       </c>
       <c r="O98" t="n">
         <v>-1</v>
       </c>
       <c r="P98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S98" t="n">
         <v>-1</v>
@@ -7851,12 +7558,9 @@
         <v>-1</v>
       </c>
       <c r="V98" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W98" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X98" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7900,25 +7604,25 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1.974715972027972</v>
       </c>
       <c r="N99" t="n">
-        <v>1.974715972027972</v>
+        <v>-1</v>
       </c>
       <c r="O99" t="n">
         <v>-1</v>
       </c>
       <c r="P99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T99" t="n">
         <v>-1</v>
@@ -7927,12 +7631,9 @@
         <v>-1</v>
       </c>
       <c r="V99" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W99" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X99" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -7976,25 +7677,25 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1.489292027972028</v>
       </c>
       <c r="N100" t="n">
-        <v>1.489292027972028</v>
+        <v>-1</v>
       </c>
       <c r="O100" t="n">
         <v>-1</v>
       </c>
       <c r="P100" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q100" t="n">
         <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T100" t="n">
         <v>-1</v>
@@ -8003,12 +7704,9 @@
         <v>-1</v>
       </c>
       <c r="V100" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W100" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X100" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8052,25 +7750,25 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>1.726793846153846</v>
       </c>
       <c r="N101" t="n">
-        <v>1.726793846153846</v>
+        <v>-1</v>
       </c>
       <c r="O101" t="n">
         <v>-1</v>
       </c>
       <c r="P101" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T101" t="n">
         <v>-1</v>
@@ -8079,12 +7777,9 @@
         <v>-1</v>
       </c>
       <c r="V101" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W101" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X101" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8128,16 +7823,16 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1.150293706293706</v>
       </c>
       <c r="N102" t="n">
-        <v>1.150293706293706</v>
+        <v>-1</v>
       </c>
       <c r="O102" t="n">
         <v>-1</v>
       </c>
       <c r="P102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -8146,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T102" t="n">
         <v>-1</v>
@@ -8155,12 +7850,9 @@
         <v>-1</v>
       </c>
       <c r="V102" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W102" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X102" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8204,16 +7896,16 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1.335288</v>
       </c>
       <c r="N103" t="n">
-        <v>1.335288</v>
+        <v>-1</v>
       </c>
       <c r="O103" t="n">
         <v>-1</v>
       </c>
       <c r="P103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -8222,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T103" t="n">
         <v>-1</v>
@@ -8231,12 +7923,9 @@
         <v>-1</v>
       </c>
       <c r="V103" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W103" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X103" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8280,22 +7969,22 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1.46154965034965</v>
       </c>
       <c r="N104" t="n">
-        <v>1.46154965034965</v>
+        <v>-1</v>
       </c>
       <c r="O104" t="n">
         <v>-1</v>
       </c>
       <c r="P104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S104" t="n">
         <v>-1</v>
@@ -8307,12 +7996,9 @@
         <v>-1</v>
       </c>
       <c r="V104" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W104" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X104" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8356,25 +8042,25 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1.915848</v>
       </c>
       <c r="N105" t="n">
-        <v>1.915848</v>
+        <v>-1</v>
       </c>
       <c r="O105" t="n">
         <v>-1</v>
       </c>
       <c r="P105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q105" t="n">
         <v>1</v>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T105" t="n">
         <v>-1</v>
@@ -8383,12 +8069,9 @@
         <v>-1</v>
       </c>
       <c r="V105" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W105" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X105" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8432,22 +8115,22 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1.481036979020979</v>
       </c>
       <c r="N106" t="n">
-        <v>1.481036979020979</v>
+        <v>-1</v>
       </c>
       <c r="O106" t="n">
         <v>-1</v>
       </c>
       <c r="P106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S106" t="n">
         <v>-1</v>
@@ -8459,12 +8142,9 @@
         <v>-1</v>
       </c>
       <c r="V106" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W106" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X106" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8508,25 +8188,25 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>2.153079160839161</v>
       </c>
       <c r="N107" t="n">
-        <v>2.153079160839161</v>
+        <v>-1</v>
       </c>
       <c r="O107" t="n">
         <v>-1</v>
       </c>
       <c r="P107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
       </c>
       <c r="R107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T107" t="n">
         <v>-1</v>
@@ -8535,12 +8215,9 @@
         <v>-1</v>
       </c>
       <c r="V107" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W107" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X107" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8584,16 +8261,16 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1.231490909090909</v>
       </c>
       <c r="N108" t="n">
-        <v>1.231490909090909</v>
+        <v>-1</v>
       </c>
       <c r="O108" t="n">
         <v>-1</v>
       </c>
       <c r="P108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -8602,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T108" t="n">
         <v>-1</v>
@@ -8611,12 +8288,9 @@
         <v>-1</v>
       </c>
       <c r="V108" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W108" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X108" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8660,16 +8334,16 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1.406741538461538</v>
       </c>
       <c r="N109" t="n">
-        <v>1.406741538461538</v>
+        <v>-1</v>
       </c>
       <c r="O109" t="n">
         <v>-1</v>
       </c>
       <c r="P109" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -8678,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T109" t="n">
         <v>-1</v>
@@ -8687,12 +8361,9 @@
         <v>-1</v>
       </c>
       <c r="V109" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W109" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X109" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8736,22 +8407,22 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>1.597960951048951</v>
       </c>
       <c r="N110" t="n">
-        <v>1.597960951048951</v>
+        <v>-1</v>
       </c>
       <c r="O110" t="n">
         <v>-1</v>
       </c>
       <c r="P110" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="n">
         <v>1</v>
       </c>
       <c r="R110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S110" t="n">
         <v>-1</v>
@@ -8763,12 +8434,9 @@
         <v>-1</v>
       </c>
       <c r="V110" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W110" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X110" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8812,25 +8480,25 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1.964972307692308</v>
       </c>
       <c r="N111" t="n">
-        <v>1.964972307692308</v>
+        <v>-1</v>
       </c>
       <c r="O111" t="n">
         <v>-1</v>
       </c>
       <c r="P111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T111" t="n">
         <v>-1</v>
@@ -8839,12 +8507,9 @@
         <v>-1</v>
       </c>
       <c r="V111" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W111" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X111" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8888,22 +8553,22 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>1.434754573426573</v>
       </c>
       <c r="N112" t="n">
-        <v>1.434754573426573</v>
+        <v>-1</v>
       </c>
       <c r="O112" t="n">
         <v>-1</v>
       </c>
       <c r="P112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q112" t="n">
         <v>1</v>
       </c>
       <c r="R112" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S112" t="n">
         <v>-1</v>
@@ -8915,12 +8580,9 @@
         <v>-1</v>
       </c>
       <c r="V112" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W112" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X112" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -8964,25 +8626,25 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>2.046169510489511</v>
       </c>
       <c r="N113" t="n">
-        <v>2.046169510489511</v>
+        <v>-1</v>
       </c>
       <c r="O113" t="n">
         <v>-1</v>
       </c>
       <c r="P113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T113" t="n">
         <v>-1</v>
@@ -8991,12 +8653,9 @@
         <v>-1</v>
       </c>
       <c r="V113" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W113" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X113" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9040,25 +8699,25 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1.266676363636364</v>
       </c>
       <c r="N114" t="n">
-        <v>1.266676363636364</v>
+        <v>-1</v>
       </c>
       <c r="O114" t="n">
         <v>-1</v>
       </c>
       <c r="P114" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T114" t="n">
         <v>-1</v>
@@ -9067,12 +8726,9 @@
         <v>-1</v>
       </c>
       <c r="V114" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W114" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X114" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9116,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>1.406741538461538</v>
       </c>
       <c r="N115" t="n">
-        <v>1.406741538461538</v>
+        <v>-1</v>
       </c>
       <c r="O115" t="n">
         <v>-1</v>
       </c>
       <c r="P115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -9134,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T115" t="n">
         <v>-1</v>
@@ -9143,12 +8799,9 @@
         <v>-1</v>
       </c>
       <c r="V115" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W115" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X115" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9192,22 +8845,22 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>1.548024671328671</v>
       </c>
       <c r="N116" t="n">
-        <v>1.548024671328671</v>
+        <v>-1</v>
       </c>
       <c r="O116" t="n">
         <v>-1</v>
       </c>
       <c r="P116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S116" t="n">
         <v>-1</v>
@@ -9219,12 +8872,9 @@
         <v>-1</v>
       </c>
       <c r="V116" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W116" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X116" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9268,25 +8918,25 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1.964972307692308</v>
       </c>
       <c r="N117" t="n">
-        <v>1.964972307692308</v>
+        <v>-1</v>
       </c>
       <c r="O117" t="n">
         <v>-1</v>
       </c>
       <c r="P117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q117" t="n">
         <v>1</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T117" t="n">
         <v>-1</v>
@@ -9295,12 +8945,9 @@
         <v>-1</v>
       </c>
       <c r="V117" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W117" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X117" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9344,22 +8991,22 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1.425010909090909</v>
       </c>
       <c r="N118" t="n">
-        <v>1.425010909090909</v>
+        <v>-1</v>
       </c>
       <c r="O118" t="n">
         <v>-1</v>
       </c>
       <c r="P118" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S118" t="n">
         <v>-1</v>
@@ -9371,12 +9018,9 @@
         <v>-1</v>
       </c>
       <c r="V118" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W118" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X118" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9420,25 +9064,25 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>1.941966433566434</v>
       </c>
       <c r="N119" t="n">
-        <v>1.941966433566434</v>
+        <v>-1</v>
       </c>
       <c r="O119" t="n">
         <v>-1</v>
       </c>
       <c r="P119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="n">
         <v>1</v>
       </c>
       <c r="R119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T119" t="n">
         <v>-1</v>
@@ -9447,12 +9091,9 @@
         <v>-1</v>
       </c>
       <c r="V119" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W119" t="n">
-        <v>-3</v>
-      </c>
-      <c r="X119" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9496,25 +9137,25 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>1.266676363636364</v>
       </c>
       <c r="N120" t="n">
-        <v>1.266676363636364</v>
+        <v>-1</v>
       </c>
       <c r="O120" t="n">
         <v>-1</v>
       </c>
       <c r="P120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T120" t="n">
         <v>-1</v>
@@ -9523,12 +9164,9 @@
         <v>-1</v>
       </c>
       <c r="V120" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="W120" t="n">
-        <v>-4</v>
-      </c>
-      <c r="X120" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -9572,16 +9210,16 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1.406741538461538</v>
       </c>
       <c r="N121" t="n">
-        <v>1.406741538461538</v>
+        <v>-1</v>
       </c>
       <c r="O121" t="n">
         <v>-1</v>
       </c>
       <c r="P121" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
@@ -9590,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T121" t="n">
         <v>-1</v>
@@ -9599,12 +9237,9 @@
         <v>-1</v>
       </c>
       <c r="V121" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="W121" t="n">
-        <v>-5</v>
-      </c>
-      <c r="X121" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
@@ -523,7 +523,7 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4244583776223776</v>
+        <v>0.4611770750988142</v>
       </c>
       <c r="N2" t="n">
         <v>-1</v>
@@ -596,7 +596,7 @@
         <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2288746153846154</v>
+        <v>0.2486739130434782</v>
       </c>
       <c r="N3" t="n">
         <v>-1</v>
@@ -669,7 +669,7 @@
         <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3721538461538462</v>
+        <v>0.4043478260869565</v>
       </c>
       <c r="N4" t="n">
         <v>-1</v>
@@ -742,7 +742,7 @@
         <v>1.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3268187412587413</v>
+        <v>0.3550909090909091</v>
       </c>
       <c r="N5" t="n">
         <v>-1</v>
@@ -815,7 +815,7 @@
         <v>1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6103323076923077</v>
+        <v>0.6631304347826087</v>
       </c>
       <c r="N6" t="n">
         <v>-1</v>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5967994405594406</v>
+        <v>0.6484268774703558</v>
       </c>
       <c r="N7" t="n">
         <v>-1</v>
@@ -961,7 +961,7 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4262853146853147</v>
+        <v>0.4631620553359684</v>
       </c>
       <c r="N8" t="n">
         <v>-1</v>
@@ -1034,7 +1034,7 @@
         <v>2.3</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4165416503496503</v>
+        <v>0.4525754940711462</v>
       </c>
       <c r="N9" t="n">
         <v>-1</v>
@@ -1107,7 +1107,7 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5602606993006993</v>
+        <v>0.6087272727272727</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>2.2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6631104895104896</v>
+        <v>0.7204743083003953</v>
       </c>
       <c r="N11" t="n">
         <v>-1</v>
@@ -1253,7 +1253,7 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6885522797202798</v>
+        <v>0.7481169960474308</v>
       </c>
       <c r="N12" t="n">
         <v>-1</v>
@@ -1326,7 +1326,7 @@
         <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8144079440559441</v>
+        <v>0.8848600790513834</v>
       </c>
       <c r="N13" t="n">
         <v>-1</v>
@@ -1399,7 +1399,7 @@
         <v>3.9</v>
       </c>
       <c r="M14" t="n">
-        <v>1.79770606993007</v>
+        <v>1.953220553359684</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>4.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.757513454545454</v>
+        <v>1.909550988142293</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>3.7</v>
       </c>
       <c r="M16" t="n">
-        <v>2.679507692307692</v>
+        <v>2.911304347826087</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>3.1</v>
       </c>
       <c r="M17" t="n">
-        <v>2.521173146853147</v>
+        <v>2.739272727272727</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.32224</v>
+        <v>2.523130434782609</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>3.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8444509090909093</v>
+        <v>0.917501976284585</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>2.796431664335665</v>
+        <v>3.038343083003952</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>3.2</v>
       </c>
       <c r="M21" t="n">
-        <v>2.500873846153846</v>
+        <v>2.717217391304348</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2.798596923076923</v>
+        <v>3.040695652173913</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
@@ -2056,7 +2056,7 @@
         <v>3.7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.90975820979021</v>
+        <v>2.074966007905138</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>4.5</v>
       </c>
       <c r="M24" t="n">
-        <v>2.241042797202797</v>
+        <v>2.434909090909091</v>
       </c>
       <c r="N24" t="n">
         <v>-1</v>
@@ -2202,7 +2202,7 @@
         <v>4.6</v>
       </c>
       <c r="M25" t="n">
-        <v>3.286862769230769</v>
+        <v>3.5712</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -2275,7 +2275,7 @@
         <v>3.9</v>
       </c>
       <c r="M26" t="n">
-        <v>1.250436923076923</v>
+        <v>1.358608695652174</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>2.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.941966433566434</v>
+        <v>2.1099604743083</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>3.2</v>
       </c>
       <c r="M28" t="n">
-        <v>2.455403412587412</v>
+        <v>2.667813438735178</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -2494,7 +2494,7 @@
         <v>4.1</v>
       </c>
       <c r="M29" t="n">
-        <v>2.364462545454546</v>
+        <v>2.569005533596838</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -2567,7 +2567,7 @@
         <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.607704615384616</v>
+        <v>1.746782608695652</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>4.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.854814769230769</v>
+        <v>2.015269565217391</v>
       </c>
       <c r="N31" t="n">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>4.2</v>
       </c>
       <c r="M32" t="n">
-        <v>3.800029090909091</v>
+        <v>4.128758893280632</v>
       </c>
       <c r="N32" t="n">
         <v>1</v>
@@ -2786,7 +2786,7 @@
         <v>3.6</v>
       </c>
       <c r="M33" t="n">
-        <v>2.142794181818182</v>
+        <v>2.328161264822135</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>3.2</v>
       </c>
       <c r="M34" t="n">
-        <v>3.429769846153846</v>
+        <v>3.726469565217391</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="n">
         <v>-1</v>
@@ -2886,7 +2886,7 @@
         <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -2932,7 +2932,7 @@
         <v>3.4</v>
       </c>
       <c r="M35" t="n">
-        <v>3.377803636363637</v>
+        <v>3.67000790513834</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
@@ -3005,7 +3005,7 @@
         <v>3.3</v>
       </c>
       <c r="M36" t="n">
-        <v>2.762328839160839</v>
+        <v>3.001290118577075</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
@@ -3078,7 +3078,7 @@
         <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>2.512241454545455</v>
+        <v>2.72956837944664</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>3.5</v>
       </c>
       <c r="M38" t="n">
-        <v>2.042515636363636</v>
+        <v>2.21920790513834</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3224,7 +3224,7 @@
         <v>3.6</v>
       </c>
       <c r="M39" t="n">
-        <v>2.072964587412588</v>
+        <v>2.252290909090909</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
@@ -3297,7 +3297,7 @@
         <v>4.6</v>
       </c>
       <c r="M40" t="n">
-        <v>2.734992447552448</v>
+        <v>2.971588932806324</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
@@ -3370,7 +3370,7 @@
         <v>4.4</v>
       </c>
       <c r="M41" t="n">
-        <v>2.286513230769231</v>
+        <v>2.484313043478261</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -3443,7 +3443,7 @@
         <v>3.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.670091132867133</v>
+        <v>1.814566007905138</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
@@ -3516,7 +3516,7 @@
         <v>4.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.708930461538462</v>
+        <v>1.856765217391304</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>3.4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.867129678321678</v>
+        <v>2.028649802371542</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>2.7</v>
       </c>
       <c r="M45" t="n">
-        <v>1.916253986013986</v>
+        <v>2.08202371541502</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
@@ -3735,7 +3735,7 @@
         <v>3.8</v>
       </c>
       <c r="M46" t="n">
-        <v>2.250786461538462</v>
+        <v>2.445495652173913</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -3808,7 +3808,7 @@
         <v>4.1</v>
       </c>
       <c r="M47" t="n">
-        <v>2.557711888111888</v>
+        <v>2.77897233201581</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>4.1</v>
       </c>
       <c r="M48" t="n">
-        <v>1.496261454545455</v>
+        <v>1.625698814229249</v>
       </c>
       <c r="N48" t="n">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>4.1</v>
       </c>
       <c r="M49" t="n">
-        <v>3.112559440559441</v>
+        <v>3.381818181818182</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>3.1</v>
       </c>
       <c r="M50" t="n">
-        <v>2.438352</v>
+        <v>2.649286956521739</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>2.7</v>
       </c>
       <c r="M51" t="n">
-        <v>1.624823692307692</v>
+        <v>1.765382608695652</v>
       </c>
       <c r="N51" t="n">
         <v>-1</v>
@@ -4173,7 +4173,7 @@
         <v>3.3</v>
       </c>
       <c r="M52" t="n">
-        <v>1.973904</v>
+        <v>2.144660869565218</v>
       </c>
       <c r="N52" t="n">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>3.9</v>
       </c>
       <c r="M53" t="n">
-        <v>2.247132587412588</v>
+        <v>2.441525691699605</v>
       </c>
       <c r="N53" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>1.619884195804196</v>
+        <v>1.76001581027668</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
@@ -4392,7 +4392,7 @@
         <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.33731793006993</v>
+        <v>1.453005533596838</v>
       </c>
       <c r="N55" t="n">
         <v>1</v>
@@ -4465,7 +4465,7 @@
         <v>2.4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.727876475524476</v>
+        <v>1.877350197628458</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>2.5</v>
       </c>
       <c r="M57" t="n">
-        <v>2.304376615384615</v>
+        <v>2.503721739130435</v>
       </c>
       <c r="N57" t="n">
         <v>1</v>
@@ -4611,7 +4611,7 @@
         <v>2.6</v>
       </c>
       <c r="M58" t="n">
-        <v>1.542205538461539</v>
+        <v>1.675617391304348</v>
       </c>
       <c r="N58" t="n">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.250436923076923</v>
+        <v>1.358608695652174</v>
       </c>
       <c r="N59" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>3.5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.452076643356643</v>
+        <v>1.577691699604743</v>
       </c>
       <c r="N60" t="n">
         <v>1</v>
@@ -4830,7 +4830,7 @@
         <v>3.2</v>
       </c>
       <c r="M61" t="n">
-        <v>1.277232</v>
+        <v>1.387721739130435</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>1.047985230769231</v>
+        <v>1.13864347826087</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         <v>1.8</v>
       </c>
       <c r="M63" t="n">
-        <v>1.006845314685315</v>
+        <v>1.093944664031621</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
@@ -5049,7 +5049,7 @@
         <v>2.8</v>
       </c>
       <c r="M64" t="n">
-        <v>1.047985230769231</v>
+        <v>1.13864347826087</v>
       </c>
       <c r="N64" t="n">
         <v>1</v>
@@ -5122,7 +5122,7 @@
         <v>2.4</v>
       </c>
       <c r="M65" t="n">
-        <v>1.520011636363636</v>
+        <v>1.651503557312253</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>2.2</v>
       </c>
       <c r="M66" t="n">
-        <v>1.143256615384615</v>
+        <v>1.242156521739131</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>0.8336246153846154</v>
+        <v>0.9057391304347826</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -5341,7 +5341,7 @@
         <v>3.5</v>
       </c>
       <c r="M68" t="n">
-        <v>1.772534937062937</v>
+        <v>1.925871936758893</v>
       </c>
       <c r="N68" t="n">
         <v>-1</v>
@@ -5414,7 +5414,7 @@
         <v>2.7</v>
       </c>
       <c r="M69" t="n">
-        <v>1.520011636363636</v>
+        <v>1.651503557312253</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
@@ -5487,7 +5487,7 @@
         <v>3.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.446934153846154</v>
+        <v>1.572104347826087</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
@@ -5560,7 +5560,7 @@
         <v>2.8</v>
       </c>
       <c r="M71" t="n">
-        <v>2.667328111888112</v>
+        <v>2.898071146245059</v>
       </c>
       <c r="N71" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>2.4</v>
       </c>
       <c r="M72" t="n">
-        <v>1.625568</v>
+        <v>1.766191304347826</v>
       </c>
       <c r="N72" t="n">
         <v>-1</v>
@@ -5706,7 +5706,7 @@
         <v>2.1</v>
       </c>
       <c r="M73" t="n">
-        <v>1.208755692307692</v>
+        <v>1.313321739130435</v>
       </c>
       <c r="N73" t="n">
         <v>-1</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1.705141258741259</v>
+        <v>1.852648221343874</v>
       </c>
       <c r="N74" t="n">
         <v>-1</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>1.682406041958042</v>
+        <v>1.827946245059288</v>
       </c>
       <c r="N75" t="n">
         <v>-1</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.932493426573427</v>
+        <v>2.099667984189723</v>
       </c>
       <c r="N76" t="n">
         <v>-1</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2.755021090909091</v>
+        <v>2.993350197628458</v>
       </c>
       <c r="N77" t="n">
         <v>-1</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>1.987707524475524</v>
+        <v>2.159658498023715</v>
       </c>
       <c r="N78" t="n">
         <v>-1</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>1.510267972027972</v>
+        <v>1.640916996047431</v>
       </c>
       <c r="N79" t="n">
         <v>-1</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>2.185558041958042</v>
+        <v>2.374624505928854</v>
       </c>
       <c r="N80" t="n">
         <v>-1</v>
@@ -6290,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2.178114965034965</v>
+        <v>2.366537549407115</v>
       </c>
       <c r="N81" t="n">
         <v>-1</v>
@@ -6363,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>2.301940699300699</v>
+        <v>2.501075098814229</v>
       </c>
       <c r="N82" t="n">
         <v>-1</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>2.755021090909091</v>
+        <v>2.993350197628458</v>
       </c>
       <c r="N83" t="n">
         <v>-1</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>2.236170965034965</v>
+        <v>2.42961581027668</v>
       </c>
       <c r="N84" t="n">
         <v>-1</v>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.792834237762238</v>
+        <v>1.947927272727273</v>
       </c>
       <c r="N85" t="n">
         <v>-1</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>2.565019636363636</v>
+        <v>2.786912252964427</v>
       </c>
       <c r="N86" t="n">
         <v>-1</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>2.295850909090909</v>
+        <v>2.494458498023715</v>
       </c>
       <c r="N87" t="n">
         <v>-1</v>
@@ -6801,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>2.260530125874126</v>
+        <v>2.456082213438735</v>
       </c>
       <c r="N88" t="n">
         <v>-1</v>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>2.850021818181818</v>
+        <v>3.096569169960474</v>
       </c>
       <c r="N89" t="n">
         <v>-1</v>
@@ -6892,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="S89" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
         <v>-1</v>
@@ -6901,7 +6901,7 @@
         <v>-1</v>
       </c>
       <c r="V89" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W89" t="n">
         <v>-1</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>2.401813258741259</v>
+        <v>2.609587351778656</v>
       </c>
       <c r="N90" t="n">
         <v>-1</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1.870783552447553</v>
+        <v>2.03261976284585</v>
       </c>
       <c r="N91" t="n">
         <v>-1</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1.477789090909091</v>
+        <v>1.605628458498024</v>
       </c>
       <c r="N92" t="n">
         <v>-1</v>
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>1.425010909090909</v>
+        <v>1.548284584980237</v>
       </c>
       <c r="N93" t="n">
         <v>-1</v>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>1.900014545454545</v>
+        <v>2.064379446640316</v>
       </c>
       <c r="N94" t="n">
         <v>-1</v>
@@ -7312,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>1.373586013986014</v>
+        <v>1.492411067193676</v>
       </c>
       <c r="N95" t="n">
         <v>-1</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1.648303216783217</v>
+        <v>1.790893280632411</v>
       </c>
       <c r="N96" t="n">
         <v>-1</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>1.435566545454545</v>
+        <v>1.559753359683794</v>
       </c>
       <c r="N97" t="n">
         <v>-1</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>1.395170937062937</v>
+        <v>1.515863241106719</v>
       </c>
       <c r="N98" t="n">
         <v>-1</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1.974715972027972</v>
+        <v>2.145543083003953</v>
       </c>
       <c r="N99" t="n">
         <v>-1</v>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>1.489292027972028</v>
+        <v>1.618126482213439</v>
       </c>
       <c r="N100" t="n">
         <v>-1</v>
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
-        <v>1.726793846153846</v>
+        <v>1.876173913043478</v>
       </c>
       <c r="N101" t="n">
         <v>-1</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>1.150293706293706</v>
+        <v>1.249802371541502</v>
       </c>
       <c r="N102" t="n">
         <v>-1</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1.335288</v>
+        <v>1.4508</v>
       </c>
       <c r="N103" t="n">
         <v>-1</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>1.46154965034965</v>
+        <v>1.58798418972332</v>
       </c>
       <c r="N104" t="n">
         <v>-1</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>1.915848</v>
+        <v>2.081582608695653</v>
       </c>
       <c r="N105" t="n">
         <v>-1</v>
@@ -8115,7 +8115,7 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1.481036979020979</v>
+        <v>1.609157312252964</v>
       </c>
       <c r="N106" t="n">
         <v>-1</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2.153079160839161</v>
+        <v>2.339335968379447</v>
       </c>
       <c r="N107" t="n">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>1.231490909090909</v>
+        <v>1.33802371541502</v>
       </c>
       <c r="N108" t="n">
         <v>-1</v>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>1.406741538461538</v>
+        <v>1.528434782608696</v>
       </c>
       <c r="N109" t="n">
         <v>-1</v>
@@ -8407,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
-        <v>1.597960951048951</v>
+        <v>1.73619604743083</v>
       </c>
       <c r="N110" t="n">
         <v>-1</v>
@@ -8480,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>1.964972307692308</v>
+        <v>2.13495652173913</v>
       </c>
       <c r="N111" t="n">
         <v>-1</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>1.434754573426573</v>
+        <v>1.558871146245059</v>
       </c>
       <c r="N112" t="n">
         <v>-1</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>2.046169510489511</v>
+        <v>2.223177865612648</v>
       </c>
       <c r="N113" t="n">
         <v>-1</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1.266676363636364</v>
+        <v>1.376252964426878</v>
       </c>
       <c r="N114" t="n">
         <v>-1</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>1.406741538461538</v>
+        <v>1.528434782608696</v>
       </c>
       <c r="N115" t="n">
         <v>-1</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1.548024671328671</v>
+        <v>1.681939920948616</v>
       </c>
       <c r="N116" t="n">
         <v>-1</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="n">
-        <v>1.964972307692308</v>
+        <v>2.13495652173913</v>
       </c>
       <c r="N117" t="n">
         <v>-1</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>1.425010909090909</v>
+        <v>1.548284584980237</v>
       </c>
       <c r="N118" t="n">
         <v>-1</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1.941966433566434</v>
+        <v>2.1099604743083</v>
       </c>
       <c r="N119" t="n">
         <v>-1</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.266676363636364</v>
+        <v>1.376252964426878</v>
       </c>
       <c r="N120" t="n">
         <v>-1</v>
@@ -9210,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1.406741538461538</v>
+        <v>1.528434782608696</v>
       </c>
       <c r="N121" t="n">
         <v>-1</v>

--- a/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
+++ b/dataset/2nd_data/hwang/hwang_growth_detail_data.xlsx
@@ -369,7 +369,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>주차</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -429,65 +429,63 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>leaf_area</t>
+          <t>엽면적지수</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>suitable_growth_length</t>
+          <t>주간생육길이_생육상태</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>suitable_thickness</t>
+          <t>줄기굵기_생육상태</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_length</t>
+          <t>잎길이_생육상태</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_width</t>
+          <t>입폭_생육상태</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>suitable_number_of_leaf</t>
+          <t>입수_생육상태</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>suitable_leaf_area</t>
+          <t>엽면적지수_생육상태</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_room</t>
+          <t>개화화방위치_생육상태</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>suitable_flower_distance</t>
+          <t>꽃과줄기거리_생육상태</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>growth_type_score</t>
+          <t>생육상태점수</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>growth_type</t>
+          <t>생장구분</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20180208</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -557,10 +555,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20180208</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -630,10 +626,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20180208</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -703,10 +697,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20180208</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -776,10 +768,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20180208</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -849,10 +839,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4주(02/08)</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20180208</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -922,10 +910,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20180214</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -995,10 +981,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20180214</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
@@ -1068,10 +1052,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20180214</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -1134,17 +1116,15 @@
         <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20180214</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -1214,10 +1194,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20180214</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -1287,10 +1265,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>5주(02/14)</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20180214</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -1360,10 +1336,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20180222</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -1426,17 +1400,15 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20180222</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -1499,17 +1471,15 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20180222</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -1579,10 +1549,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20180222</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -1645,17 +1613,15 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20180222</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
@@ -1718,17 +1684,15 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6주(02/22)</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20180222</v>
       </c>
       <c r="B19" t="n">
         <v>6</v>
@@ -1791,17 +1755,15 @@
         <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20180301</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -1871,10 +1833,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20180301</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
@@ -1944,10 +1904,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20180301</v>
       </c>
       <c r="B22" t="n">
         <v>3</v>
@@ -2010,17 +1968,15 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20180301</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -2090,10 +2046,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20180301</v>
       </c>
       <c r="B24" t="n">
         <v>5</v>
@@ -2156,17 +2110,15 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>7주(03/01)</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20180301</v>
       </c>
       <c r="B25" t="n">
         <v>6</v>
@@ -2236,10 +2188,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20180308</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -2309,10 +2259,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20180308</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
@@ -2375,17 +2323,15 @@
         <v>-1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20180308</v>
       </c>
       <c r="B28" t="n">
         <v>3</v>
@@ -2448,17 +2394,15 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20180308</v>
       </c>
       <c r="B29" t="n">
         <v>4</v>
@@ -2528,10 +2472,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20180308</v>
       </c>
       <c r="B30" t="n">
         <v>5</v>
@@ -2601,10 +2543,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>8주(03/08)</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20180308</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -2667,17 +2607,15 @@
         <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20180315</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -2740,17 +2678,15 @@
         <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20180315</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
@@ -2813,17 +2749,15 @@
         <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20180315</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -2893,10 +2827,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20180315</v>
       </c>
       <c r="B35" t="n">
         <v>4</v>
@@ -2959,17 +2891,15 @@
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20180315</v>
       </c>
       <c r="B36" t="n">
         <v>5</v>
@@ -3032,17 +2962,15 @@
         <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>9주(03/15)</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20180315</v>
       </c>
       <c r="B37" t="n">
         <v>6</v>
@@ -3112,10 +3040,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20180322</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -3185,10 +3111,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20180322</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -3251,17 +3175,15 @@
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20180322</v>
       </c>
       <c r="B40" t="n">
         <v>3</v>
@@ -3324,17 +3246,15 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20180322</v>
       </c>
       <c r="B41" t="n">
         <v>4</v>
@@ -3397,17 +3317,15 @@
         <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20180322</v>
       </c>
       <c r="B42" t="n">
         <v>5</v>
@@ -3470,17 +3388,15 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>10주(03/22)</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20180322</v>
       </c>
       <c r="B43" t="n">
         <v>6</v>
@@ -3543,17 +3459,15 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20180329</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -3616,17 +3530,15 @@
         <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20180329</v>
       </c>
       <c r="B45" t="n">
         <v>2</v>
@@ -3689,17 +3601,15 @@
         <v>1</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20180329</v>
       </c>
       <c r="B46" t="n">
         <v>3</v>
@@ -3762,17 +3672,15 @@
         <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20180329</v>
       </c>
       <c r="B47" t="n">
         <v>4</v>
@@ -3835,17 +3743,15 @@
         <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20180329</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
@@ -3908,17 +3814,15 @@
         <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>11주(03/29)</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20180329</v>
       </c>
       <c r="B49" t="n">
         <v>6</v>
@@ -3981,17 +3885,15 @@
         <v>1</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20180405</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -4054,17 +3956,15 @@
         <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20180405</v>
       </c>
       <c r="B51" t="n">
         <v>2</v>
@@ -4134,10 +4034,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20180405</v>
       </c>
       <c r="B52" t="n">
         <v>3</v>
@@ -4200,17 +4098,15 @@
         <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20180405</v>
       </c>
       <c r="B53" t="n">
         <v>4</v>
@@ -4273,17 +4169,15 @@
         <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20180405</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
@@ -4346,17 +4240,15 @@
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>12주(04/05)</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20180405</v>
       </c>
       <c r="B55" t="n">
         <v>6</v>
@@ -4419,17 +4311,15 @@
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20180412</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -4492,17 +4382,15 @@
         <v>-1</v>
       </c>
       <c r="V56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20180412</v>
       </c>
       <c r="B57" t="n">
         <v>2</v>
@@ -4565,17 +4453,15 @@
         <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20180412</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -4638,17 +4524,15 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20180412</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -4711,17 +4595,15 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20180412</v>
       </c>
       <c r="B60" t="n">
         <v>5</v>
@@ -4784,17 +4666,15 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>13주(04/12)</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20180412</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
@@ -4857,17 +4737,15 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W61" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20180418</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -4937,10 +4815,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20180418</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -5003,17 +4879,15 @@
         <v>-1</v>
       </c>
       <c r="V63" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W63" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20180418</v>
       </c>
       <c r="B64" t="n">
         <v>3</v>
@@ -5076,17 +4950,15 @@
         <v>-1</v>
       </c>
       <c r="V64" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W64" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20180418</v>
       </c>
       <c r="B65" t="n">
         <v>4</v>
@@ -5149,17 +5021,15 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20180418</v>
       </c>
       <c r="B66" t="n">
         <v>5</v>
@@ -5222,17 +5092,15 @@
         <v>-1</v>
       </c>
       <c r="V66" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W66" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>14주(04/18)</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20180418</v>
       </c>
       <c r="B67" t="n">
         <v>6</v>
@@ -5295,17 +5163,15 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W67" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20180426</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -5375,10 +5241,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20180426</v>
       </c>
       <c r="B69" t="n">
         <v>2</v>
@@ -5441,17 +5305,15 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20180426</v>
       </c>
       <c r="B70" t="n">
         <v>3</v>
@@ -5514,17 +5376,15 @@
         <v>1</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20180426</v>
       </c>
       <c r="B71" t="n">
         <v>4</v>
@@ -5587,17 +5447,15 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20180426</v>
       </c>
       <c r="B72" t="n">
         <v>5</v>
@@ -5667,10 +5525,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>15주(04/26)</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20180426</v>
       </c>
       <c r="B73" t="n">
         <v>6</v>
@@ -5740,10 +5596,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20180503</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -5813,10 +5667,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20180503</v>
       </c>
       <c r="B75" t="n">
         <v>2</v>
@@ -5886,10 +5738,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20180503</v>
       </c>
       <c r="B76" t="n">
         <v>3</v>
@@ -5959,10 +5809,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20180503</v>
       </c>
       <c r="B77" t="n">
         <v>4</v>
@@ -6032,10 +5880,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20180503</v>
       </c>
       <c r="B78" t="n">
         <v>5</v>
@@ -6105,10 +5951,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>16주(05/03)</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20180503</v>
       </c>
       <c r="B79" t="n">
         <v>6</v>
@@ -6178,10 +6022,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20180510</v>
       </c>
       <c r="B80" t="n">
         <v>1</v>
@@ -6251,10 +6093,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20180510</v>
       </c>
       <c r="B81" t="n">
         <v>2</v>
@@ -6324,10 +6164,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20180510</v>
       </c>
       <c r="B82" t="n">
         <v>3</v>
@@ -6397,10 +6235,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20180510</v>
       </c>
       <c r="B83" t="n">
         <v>4</v>
@@ -6470,10 +6306,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20180510</v>
       </c>
       <c r="B84" t="n">
         <v>5</v>
@@ -6543,10 +6377,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>17주(05/10)</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20180510</v>
       </c>
       <c r="B85" t="n">
         <v>6</v>
@@ -6616,10 +6448,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20180517</v>
       </c>
       <c r="B86" t="n">
         <v>1</v>
@@ -6689,10 +6519,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20180517</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -6762,10 +6590,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20180517</v>
       </c>
       <c r="B88" t="n">
         <v>3</v>
@@ -6835,10 +6661,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20180517</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -6908,10 +6732,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20180517</v>
       </c>
       <c r="B90" t="n">
         <v>5</v>
@@ -6981,10 +6803,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>18주(05/17)</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20180517</v>
       </c>
       <c r="B91" t="n">
         <v>6</v>
@@ -7054,10 +6874,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20180524</v>
       </c>
       <c r="B92" t="n">
         <v>1</v>
@@ -7127,10 +6945,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20180524</v>
       </c>
       <c r="B93" t="n">
         <v>2</v>
@@ -7200,10 +7016,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20180524</v>
       </c>
       <c r="B94" t="n">
         <v>3</v>
@@ -7273,10 +7087,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20180524</v>
       </c>
       <c r="B95" t="n">
         <v>4</v>
@@ -7346,10 +7158,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20180524</v>
       </c>
       <c r="B96" t="n">
         <v>5</v>
@@ -7419,10 +7229,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>19주(05/24)</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20180524</v>
       </c>
       <c r="B97" t="n">
         <v>6</v>
@@ -7492,10 +7300,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20180531</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -7565,10 +7371,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20180531</v>
       </c>
       <c r="B99" t="n">
         <v>2</v>
@@ -7638,10 +7442,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20180531</v>
       </c>
       <c r="B100" t="n">
         <v>3</v>
@@ -7711,10 +7513,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20180531</v>
       </c>
       <c r="B101" t="n">
         <v>4</v>
@@ -7784,10 +7584,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20180531</v>
       </c>
       <c r="B102" t="n">
         <v>5</v>
@@ -7857,10 +7655,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20주(05/31)</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20180531</v>
       </c>
       <c r="B103" t="n">
         <v>6</v>
@@ -7930,10 +7726,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20180607</v>
       </c>
       <c r="B104" t="n">
         <v>1</v>
@@ -8003,10 +7797,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20180607</v>
       </c>
       <c r="B105" t="n">
         <v>2</v>
@@ -8076,10 +7868,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20180607</v>
       </c>
       <c r="B106" t="n">
         <v>3</v>
@@ -8149,10 +7939,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20180607</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -8222,10 +8010,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20180607</v>
       </c>
       <c r="B108" t="n">
         <v>5</v>
@@ -8295,10 +8081,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>21주(06/07)</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20180607</v>
       </c>
       <c r="B109" t="n">
         <v>6</v>
@@ -8368,10 +8152,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20180614</v>
       </c>
       <c r="B110" t="n">
         <v>1</v>
@@ -8441,10 +8223,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20180614</v>
       </c>
       <c r="B111" t="n">
         <v>2</v>
@@ -8514,10 +8294,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20180614</v>
       </c>
       <c r="B112" t="n">
         <v>3</v>
@@ -8587,10 +8365,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20180614</v>
       </c>
       <c r="B113" t="n">
         <v>4</v>
@@ -8660,10 +8436,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20180614</v>
       </c>
       <c r="B114" t="n">
         <v>5</v>
@@ -8733,10 +8507,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>22주(06/14)</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20180614</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -8806,10 +8578,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20180621</v>
       </c>
       <c r="B116" t="n">
         <v>1</v>
@@ -8879,10 +8649,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20180621</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -8952,10 +8720,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20180621</v>
       </c>
       <c r="B118" t="n">
         <v>3</v>
@@ -9025,10 +8791,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20180621</v>
       </c>
       <c r="B119" t="n">
         <v>4</v>
@@ -9098,10 +8862,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20180621</v>
       </c>
       <c r="B120" t="n">
         <v>5</v>
@@ -9171,10 +8933,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>23주(06/21)</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20180621</v>
       </c>
       <c r="B121" t="n">
         <v>6</v>
